--- a/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
+++ b/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
@@ -827,12 +827,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
+++ b/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安法国CAC40ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.5</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
+++ b/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安法国CAC40ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.5</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
+++ b/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,361 +453,331 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006308</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）人民币A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006310</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9271</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006309</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）人民币C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1310</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>513080</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安法国CAC40ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安法国CAC40ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,332 +1137,362 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>000593</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1670</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安法国CAC40ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1670</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1670</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513080</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安法国CAC40ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
+++ b/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -588,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -626,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -664,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -712,22 +729,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.64</t>
+          <t>95.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -750,22 +767,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -778,6 +795,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安法国CAC40ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,7 +1400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
+++ b/数据整理/stocks/其他/MC-LVMHMoetHennessyLouisVuittonSE.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -605,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1793</t>
+          <t>0.2079</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -643,32 +660,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1793</t>
+          <t>0.2079</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -681,32 +698,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1793</t>
+          <t>0.2079</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -729,22 +746,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -767,26 +784,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.47</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -851,32 +868,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -889,32 +906,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -927,32 +944,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -975,22 +992,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.64</t>
+          <t>95.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1013,22 +1030,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1041,6 +1058,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安法国CAC40ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1400,7 +1663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
